--- a/medicine/Mort/Cimetière_de_Choisy-le-Roi/Cimetière_de_Choisy-le-Roi.xlsx
+++ b/medicine/Mort/Cimetière_de_Choisy-le-Roi/Cimetière_de_Choisy-le-Roi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Choisy-le-Roi</t>
+          <t>Cimetière_de_Choisy-le-Roi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Choisy-le-Roi est le cimetière communal de la ville de Choisy-le-Roi, dans le Val-de-Marne en grande banlieue parisienne[1]. Il a été ouvert en 1851 pour remplacer le vieux cimetière de la rue de Vitry (aujourd'hui rue Émile-Zola).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Choisy-le-Roi est le cimetière communal de la ville de Choisy-le-Roi, dans le Val-de-Marne en grande banlieue parisienne. Il a été ouvert en 1851 pour remplacer le vieux cimetière de la rue de Vitry (aujourd'hui rue Émile-Zola).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Choisy-le-Roi</t>
+          <t>Cimetière_de_Choisy-le-Roi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il abrite le cénotaphe de Rouget de Lisle, auteur de La Marseillaise, dont la dépouille a été transférée aux Invalides en 1915. On remarque le monument aux morts de la guerre de 1870 représentant un soldat mûr brandissant son fusil à tabatière, sculpté par Aristide Croisy[2] (1840-1899) et fondu par Durenne[3], ainsi que les trois chapelles funéraires identiques (fort endommagées), de style néogothique, de la famille Boulenger, industriels des faïenceries de Choisy-le-Roi qui employait ici encore plus de 1 400 ouvriers en 1930. Certaines tombes présentent un buste (comme celle du docteur Boudeau mort en 1911) ou médaillon de la personne défunte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il abrite le cénotaphe de Rouget de Lisle, auteur de La Marseillaise, dont la dépouille a été transférée aux Invalides en 1915. On remarque le monument aux morts de la guerre de 1870 représentant un soldat mûr brandissant son fusil à tabatière, sculpté par Aristide Croisy (1840-1899) et fondu par Durenne, ainsi que les trois chapelles funéraires identiques (fort endommagées), de style néogothique, de la famille Boulenger, industriels des faïenceries de Choisy-le-Roi qui employait ici encore plus de 1 400 ouvriers en 1930. Certaines tombes présentent un buste (comme celle du docteur Boudeau mort en 1911) ou médaillon de la personne défunte.
 Le 6 septembre 1944, treize FFI de Choisy-le-Roi sont inhumés ici ; ils avaient été fusillés deux semaines auparavant dans le bois de Congis par des miliciens à la solde des Allemands. Une stèle rappelle leur mémoire.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Choisy-le-Roi</t>
+          <t>Cimetière_de_Choisy-le-Roi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Claude-Étienne Bourdin (1815-1886), médecin aliéniste,
 Yves Léger (1919-1944), compagnon de la Libération,
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Choisy-le-Roi</t>
+          <t>Cimetière_de_Choisy-le-Roi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Monument aux morts de la guerre de 1870.
